--- a/Batch-04/Interview Study Material/Projects/Matngs-Prod-Migration-Project.xlsx
+++ b/Batch-04/Interview Study Material/Projects/Matngs-Prod-Migration-Project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-godwill.ngwanah\tngs\AWS-Sol-Arch-02\Batch-03\Interview Study Material\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-godwill.ngwanah\tngs\AWS-Sol-Arch-02\Batch-04\Interview Study Material\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8660F-56D2-4CE3-B941-07611425129E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56152944-0558-4B27-B6B7-CC062A58DC2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA0E8304-56E0-4A80-92F1-72E3016464EB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="matngs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">matngs!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">matngs!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -539,10 +539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715F8926-2C09-444F-9A09-DA2705BBCC82}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -630,7 +631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -679,7 +680,7 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -711,7 +712,7 @@
         <v>29</v>
       </c>
       <c r="E5">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
@@ -729,7 +730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -764,7 +765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -799,7 +800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -835,7 +836,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{552172A1-35D5-4708-BBF3-7BD6A28BC353}"/>
+  <autoFilter ref="A1:K8" xr:uid="{552172A1-35D5-4708-BBF3-7BD6A28BC353}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="DB"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{A8DF47F8-3F4B-4324-B911-97278ED76817}"/>
     <hyperlink ref="F7" r:id="rId2" display="http://ucocpmmapp02cam.matngs.com:7002/console" xr:uid="{86E746C4-8B57-4CA0-AAEF-4718AB7C84C9}"/>
